--- a/Hernández Mendoza Delfina 20212.xlsx
+++ b/Hernández Mendoza Delfina 20212.xlsx
@@ -3434,7 +3434,7 @@
         <v>397</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">

--- a/Hernández Mendoza Delfina 20212.xlsx
+++ b/Hernández Mendoza Delfina 20212.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="646">
   <si>
     <t>NC</t>
   </si>
@@ -150,6 +150,9 @@
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
     <t>CAPORAL</t>
   </si>
   <si>
@@ -210,6 +213,9 @@
     <t>GAEL</t>
   </si>
   <si>
+    <t>NATALIE</t>
+  </si>
+  <si>
     <t>CRISTIAN FERMIN</t>
   </si>
   <si>
@@ -291,6 +297,9 @@
     <t>gg7760448@gmail.com</t>
   </si>
   <si>
+    <t>natigap48@gmail.com</t>
+  </si>
+  <si>
     <t>joseigmo90@hotmail.com</t>
   </si>
   <si>
@@ -369,6 +378,9 @@
     <t>2721917796</t>
   </si>
   <si>
+    <t>2722018659</t>
+  </si>
+  <si>
     <t>2721092960</t>
   </si>
   <si>
@@ -438,6 +450,9 @@
     <t>2722605467</t>
   </si>
   <si>
+    <t>2721443309</t>
+  </si>
+  <si>
     <t>2721710203</t>
   </si>
   <si>
@@ -486,6 +501,9 @@
     <t>MARÍA DE JESÚS GONZÁLEZ TAPÍA</t>
   </si>
   <si>
+    <t>KARINA GUADALUPE PEREZ SAN JUAN</t>
+  </si>
+  <si>
     <t>ANDRES GARCIA MONTIEL</t>
   </si>
   <si>
@@ -621,6 +639,9 @@
     <t>2722337781</t>
   </si>
   <si>
+    <t>2721349831</t>
+  </si>
+  <si>
     <t>2721428630</t>
   </si>
   <si>
@@ -751,9 +772,6 @@
   </si>
   <si>
     <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
   </si>
   <si>
     <t>ISRAEL</t>
@@ -2293,7 +2311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2354,22 +2372,22 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -2386,22 +2404,22 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -2418,25 +2436,25 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="J4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -2453,22 +2471,22 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="J5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -2485,25 +2503,25 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="J6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -2520,22 +2538,22 @@
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -2552,19 +2570,19 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -2581,22 +2599,22 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="J9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -2613,22 +2631,22 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I10" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="J10" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -2636,34 +2654,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>21330051920121</v>
+        <v>21330051920120</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I11" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="J11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -2671,31 +2686,34 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>21330051920391</v>
+        <v>21330051920121</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>145</v>
       </c>
       <c r="H12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -2703,34 +2721,31 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>21330051920122</v>
+        <v>21330051920391</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -2738,34 +2753,34 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>21330051920123</v>
+        <v>21330051920122</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J14" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -2773,34 +2788,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>21330051920124</v>
+        <v>21330051920123</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G15" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I15" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="J15" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -2808,34 +2823,34 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>21330051920125</v>
+        <v>21330051920124</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I16" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2843,34 +2858,34 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>21330051920126</v>
+        <v>21330051920125</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H17" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2878,267 +2893,270 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>21330051920127</v>
+        <v>21330051920126</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H18" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="J18" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920275</v>
+        <v>21330051920127</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>149</v>
       </c>
       <c r="H19" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>21330051920128</v>
+        <v>20330051920275</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="H20" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>21330051920129</v>
+        <v>21330051920128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="H21" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>21330051920130</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
+        <v>21330051920129</v>
       </c>
       <c r="C22" t="s">
         <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="G22" t="s">
+        <v>131</v>
       </c>
       <c r="H22" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>21330051920131</v>
+        <v>21330051920130</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>18330051920377</v>
+        <v>21330051920131</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="H24" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>21330051920132</v>
+        <v>18330051920377</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="G25" t="s">
+        <v>134</v>
       </c>
       <c r="H25" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -3146,100 +3164,132 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>20330051920152</v>
+        <v>21330051920132</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H26" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>21330051920133</v>
+        <v>20330051920152</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H27" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I27" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="J27" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
+        <v>21330051920133</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" t="s">
+        <v>198</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
         <v>21330051920134</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" t="s">
-        <v>173</v>
-      </c>
-      <c r="I28" t="s">
-        <v>193</v>
-      </c>
-      <c r="J28" t="s">
-        <v>212</v>
-      </c>
-      <c r="K28">
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" t="s">
+        <v>199</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29">
         <v>1</v>
       </c>
     </row>
@@ -3305,31 +3355,31 @@
         <v>19330051920307</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="I2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="J2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -3340,31 +3390,31 @@
         <v>19330051920308</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I3" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="J3" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -3375,31 +3425,31 @@
         <v>19330051920309</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H4" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="I4" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="J4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -3410,28 +3460,28 @@
         <v>19330051920311</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="I5" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="J5" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3448,25 +3498,25 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F6" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G6" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H6" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="I6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J6" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3477,28 +3527,28 @@
         <v>19330051920318</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="I7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="J7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -3512,19 +3562,19 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E8" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F8" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H8" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3535,28 +3585,28 @@
         <v>19330051920323</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="I9" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="J9" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -3570,25 +3620,25 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E10" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F10" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G10" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H10" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="J10" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -3602,28 +3652,28 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F11" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="G11" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H11" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I11" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="J11" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -3634,31 +3684,31 @@
         <v>19330051920321</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E12" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F12" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G12" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H12" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="I12" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="J12" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3672,25 +3722,25 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H13" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="I13" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="J13" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -3707,22 +3757,22 @@
         <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E14" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F14" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G14" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H14" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="J14" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -3733,28 +3783,28 @@
         <v>19330051920331</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C15" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E15" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F15" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H15" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="I15" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="J15" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -3768,28 +3818,28 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E16" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F16" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G16" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H16" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="I16" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="J16" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -3800,28 +3850,28 @@
         <v>19330051920334</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s">
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E17" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F17" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H17" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="I17" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="J17" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -3835,28 +3885,28 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E18" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F18" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G18" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H18" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="I18" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="J18" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -3867,31 +3917,31 @@
         <v>19330051920338</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E19" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F19" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G19" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H19" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="I19" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="J19" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -3902,22 +3952,22 @@
         <v>19330051920342</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E20" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F20" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H20" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -3928,31 +3978,31 @@
         <v>19330051920341</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F21" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G21" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H21" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="I21" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="J21" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -3963,28 +4013,28 @@
         <v>19330051920344</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E22" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F22" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H22" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="I22" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="J22" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -3995,31 +4045,31 @@
         <v>19330051920347</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D23" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E23" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F23" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="G23" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H23" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="I23" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="J23" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -4030,28 +4080,28 @@
         <v>19330051920440</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E24" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F24" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G24" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="H24" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="J24" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -4062,31 +4112,31 @@
         <v>19330051920345</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E25" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F25" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G25" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H25" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="I25" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="J25" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -4097,31 +4147,31 @@
         <v>19330051920346</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D26" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E26" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F26" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G26" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H26" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="I26" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="J26" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -4132,31 +4182,31 @@
         <v>19330051920350</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E27" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F27" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G27" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H27" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="I27" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="J27" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -4170,28 +4220,28 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D28" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E28" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F28" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G28" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H28" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="I28" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="J28" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -4208,19 +4258,19 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E29" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F29" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H29" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="J29" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -4231,31 +4281,31 @@
         <v>19330051920354</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E30" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G30" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H30" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="I30" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="J30" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -4266,22 +4316,22 @@
         <v>19330051920353</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E31" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F31" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H31" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -4292,31 +4342,31 @@
         <v>19330051920355</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E32" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F32" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G32" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H32" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="I32" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="J32" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -4384,28 +4434,28 @@
         <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="E2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="F2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="G2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H2" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="J2" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4416,28 +4466,28 @@
         <v>19330051920247</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E3" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H3" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="I3" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="J3" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4448,31 +4498,31 @@
         <v>19330051920248</v>
       </c>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E4" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F4" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G4" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="H4" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="I4" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="J4" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4483,31 +4533,31 @@
         <v>19330051920249</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D5" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="E5" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="F5" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="G5" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="I5" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="J5" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4518,31 +4568,31 @@
         <v>19330051920250</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D6" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E6" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F6" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="G6" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="H6" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="I6" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="J6" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -4556,28 +4606,28 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="E7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="G7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="I7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="J7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4591,25 +4641,25 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D8" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="E8" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G8" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="H8" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="I8" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -4626,22 +4676,22 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="E9" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F9" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="H9" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="I9" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="J9" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4655,28 +4705,28 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E10" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F10" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G10" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H10" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="I10" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="J10" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -4690,28 +4740,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D11" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="E11" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F11" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="G11" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H11" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="I11" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="J11" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -4728,25 +4778,25 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E12" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F12" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G12" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H12" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="I12" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="J12" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -4763,25 +4813,25 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E13" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F13" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G13" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="H13" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="I13" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="J13" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -4795,28 +4845,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D14" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="E14" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F14" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G14" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H14" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="I14" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="J14" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -4827,28 +4877,28 @@
         <v>19330051920259</v>
       </c>
       <c r="B15" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C15" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D15" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E15" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F15" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="G15" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="H15" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="I15" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -4865,25 +4915,25 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="E16" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F16" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="G16" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="H16" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="I16" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="J16" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -4894,31 +4944,31 @@
         <v>19330051920260</v>
       </c>
       <c r="B17" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C17" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D17" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E17" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F17" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G17" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H17" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="I17" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="J17" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4932,28 +4982,28 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D18" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E18" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F18" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="G18" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="H18" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="I18" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="J18" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4964,31 +5014,31 @@
         <v>19330051920261</v>
       </c>
       <c r="B19" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C19" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D19" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E19" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F19" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G19" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="H19" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="I19" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="J19" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4999,22 +5049,22 @@
         <v>19330051920265</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="E20" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F20" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H20" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -5025,31 +5075,31 @@
         <v>19330051920267</v>
       </c>
       <c r="B21" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C21" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D21" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E21" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F21" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="G21" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H21" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="I21" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="J21" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -5060,22 +5110,22 @@
         <v>19330051920266</v>
       </c>
       <c r="B22" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C22" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D22" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E22" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F22" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="H22" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -5086,31 +5136,31 @@
         <v>19330051920402</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C23" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D23" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E23" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F23" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="G23" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="H23" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="I23" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="J23" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -5121,28 +5171,28 @@
         <v>19330051920400</v>
       </c>
       <c r="B24" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C24" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D24" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E24" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F24" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="H24" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="I24" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="J24" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -5153,31 +5203,31 @@
         <v>19330051920403</v>
       </c>
       <c r="B25" t="s">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D25" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="E25" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F25" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G25" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="H25" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="I25" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="J25" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -5191,28 +5241,28 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D26" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E26" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F26" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="G26" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="H26" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="I26" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="J26" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -5223,31 +5273,31 @@
         <v>19330051920405</v>
       </c>
       <c r="B27" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D27" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="E27" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F27" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="G27" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H27" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="I27" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="J27" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -5258,31 +5308,31 @@
         <v>19330051920406</v>
       </c>
       <c r="B28" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C28" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D28" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E28" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="F28" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="G28" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="H28" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="I28" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="J28" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -5293,28 +5343,28 @@
         <v>19330051920407</v>
       </c>
       <c r="B29" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C29" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D29" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="E29" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F29" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="H29" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="I29" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="J29" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -5325,28 +5375,28 @@
         <v>19330051920409</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E30" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G30" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="H30" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="I30" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="J30" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -5357,31 +5407,31 @@
         <v>19330051920411</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D31" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="E31" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="F31" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="G31" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H31" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="I31" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="J31" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -5392,25 +5442,25 @@
         <v>19330051920412</v>
       </c>
       <c r="B32" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C32" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D32" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E32" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="F32" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="H32" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="I32" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -5421,22 +5471,22 @@
         <v>19330051920414</v>
       </c>
       <c r="B33" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C33" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D33" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="E33" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="F33" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="H33" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K33">
         <v>2</v>

--- a/Hernández Mendoza Delfina 20212.xlsx
+++ b/Hernández Mendoza Delfina 20212.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="652">
   <si>
     <t>NC</t>
   </si>
@@ -687,6 +687,9 @@
     <t>BELLO</t>
   </si>
   <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
     <t>CORTES</t>
   </si>
   <si>
@@ -732,6 +735,9 @@
     <t>ARENAS</t>
   </si>
   <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
@@ -786,6 +792,9 @@
     <t>JOSMAR ANTONIO</t>
   </si>
   <si>
+    <t>KEVIN HONAM</t>
+  </si>
+  <si>
     <t>GIOVANNI</t>
   </si>
   <si>
@@ -876,6 +885,9 @@
     <t>belloarenas123@gmail.com</t>
   </si>
   <si>
+    <t>kevininamador11@gmail.com</t>
+  </si>
+  <si>
     <t>gioglez2004@gmail.com</t>
   </si>
   <si>
@@ -969,6 +981,9 @@
     <t>2721855688</t>
   </si>
   <si>
+    <t>2722355008</t>
+  </si>
+  <si>
     <t>2722620504</t>
   </si>
   <si>
@@ -1078,6 +1093,9 @@
   </si>
   <si>
     <t>JOSE ANTONIO BELLO HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>CELIA AMADOR GARCIA</t>
   </si>
   <si>
     <t>CASILDO CERVANTES MOLOHUA</t>
@@ -3300,7 +3318,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3358,28 +3376,28 @@
         <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="I2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="J2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -3393,28 +3411,28 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H3" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="I3" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="J3" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -3428,28 +3446,28 @@
         <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="I4" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="J4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -3463,25 +3481,25 @@
         <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H5" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="I5" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="J5" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3489,156 +3507,150 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>19330051920316</v>
+        <v>19330051920312</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H6" t="s">
-        <v>354</v>
-      </c>
-      <c r="I6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J6" t="s">
-        <v>404</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>19330051920318</v>
+        <v>19330051920316</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F7" t="s">
-        <v>318</v>
+        <v>322</v>
+      </c>
+      <c r="G7" t="s">
+        <v>322</v>
       </c>
       <c r="H7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="I7" t="s">
-        <v>385</v>
+        <v>290</v>
       </c>
       <c r="J7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>19330051920319</v>
+        <v>19330051920318</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H8" t="s">
-        <v>356</v>
+        <v>361</v>
+      </c>
+      <c r="I8" t="s">
+        <v>391</v>
+      </c>
+      <c r="J8" t="s">
+        <v>411</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>19330051920323</v>
+        <v>19330051920319</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F9" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H9" t="s">
-        <v>357</v>
-      </c>
-      <c r="I9" t="s">
-        <v>386</v>
-      </c>
-      <c r="J9" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>19330051920441</v>
+        <v>19330051920323</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E10" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F10" t="s">
-        <v>321</v>
-      </c>
-      <c r="G10" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="H10" t="s">
-        <v>358</v>
+        <v>363</v>
+      </c>
+      <c r="I10" t="s">
+        <v>392</v>
       </c>
       <c r="J10" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -3646,165 +3658,165 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>19330051920325</v>
+        <v>19330051920441</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F11" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G11" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="H11" t="s">
-        <v>359</v>
-      </c>
-      <c r="I11" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="J11" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>19330051920321</v>
+        <v>19330051920325</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F12" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G12" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H12" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="I12" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J12" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>19330051920330</v>
+        <v>19330051920321</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>265</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F13" t="s">
-        <v>324</v>
+        <v>328</v>
+      </c>
+      <c r="G13" t="s">
+        <v>328</v>
       </c>
       <c r="H13" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="I13" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="J13" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19330051920332</v>
+        <v>19330051920330</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F14" t="s">
-        <v>325</v>
-      </c>
-      <c r="G14" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H14" t="s">
-        <v>362</v>
+        <v>367</v>
+      </c>
+      <c r="I14" t="s">
+        <v>395</v>
       </c>
       <c r="J14" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>19330051920331</v>
+        <v>19330051920332</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
-        <v>326</v>
+        <v>330</v>
+      </c>
+      <c r="G15" t="s">
+        <v>330</v>
       </c>
       <c r="H15" t="s">
-        <v>363</v>
-      </c>
-      <c r="I15" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="J15" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -3812,66 +3824,66 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>19330051920333</v>
+        <v>19330051920331</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E16" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F16" t="s">
-        <v>327</v>
-      </c>
-      <c r="G16" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H16" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="I16" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="J16" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>19330051920334</v>
+        <v>19330051920333</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E17" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F17" t="s">
-        <v>328</v>
+        <v>332</v>
+      </c>
+      <c r="G17" t="s">
+        <v>332</v>
       </c>
       <c r="H17" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="I17" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="J17" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -3879,95 +3891,101 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920337</v>
+        <v>19330051920334</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E18" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F18" t="s">
-        <v>329</v>
-      </c>
-      <c r="G18" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H18" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I18" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="J18" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>19330051920338</v>
+        <v>19330051920337</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F19" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G19" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="H19" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I19" t="s">
-        <v>393</v>
+        <v>302</v>
       </c>
       <c r="J19" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>19330051920342</v>
+        <v>19330051920338</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E20" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F20" t="s">
-        <v>331</v>
+        <v>335</v>
+      </c>
+      <c r="G20" t="s">
+        <v>351</v>
       </c>
       <c r="H20" t="s">
-        <v>368</v>
+        <v>373</v>
+      </c>
+      <c r="I20" t="s">
+        <v>399</v>
+      </c>
+      <c r="J20" t="s">
+        <v>422</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -3975,238 +3993,229 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>19330051920341</v>
+        <v>19330051920342</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E21" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F21" t="s">
-        <v>332</v>
-      </c>
-      <c r="G21" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H21" t="s">
-        <v>369</v>
-      </c>
-      <c r="I21" t="s">
-        <v>394</v>
-      </c>
-      <c r="J21" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>19330051920344</v>
+        <v>19330051920341</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E22" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F22" t="s">
-        <v>333</v>
+        <v>337</v>
+      </c>
+      <c r="G22" t="s">
+        <v>337</v>
       </c>
       <c r="H22" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="I22" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="J22" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>19330051920347</v>
+        <v>19330051920344</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E23" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F23" t="s">
-        <v>334</v>
-      </c>
-      <c r="G23" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H23" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="I23" t="s">
-        <v>303</v>
+        <v>401</v>
       </c>
       <c r="J23" t="s">
-        <v>334</v>
+        <v>424</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>19330051920440</v>
+        <v>19330051920347</v>
       </c>
       <c r="B24" t="s">
         <v>231</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="D24" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E24" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F24" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G24" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H24" t="s">
-        <v>372</v>
+        <v>377</v>
+      </c>
+      <c r="I24" t="s">
+        <v>307</v>
       </c>
       <c r="J24" t="s">
-        <v>419</v>
+        <v>339</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>19330051920345</v>
+        <v>19330051920440</v>
       </c>
       <c r="B25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E25" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F25" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G25" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H25" t="s">
-        <v>373</v>
-      </c>
-      <c r="I25" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="J25" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>19330051920346</v>
+        <v>19330051920345</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E26" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F26" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G26" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H26" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="I26" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="J26" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>19330051920350</v>
+        <v>19330051920346</v>
       </c>
       <c r="B27" t="s">
         <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D27" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E27" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F27" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G27" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="H27" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="I27" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="J27" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -4214,34 +4223,34 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>19330051920351</v>
+        <v>19330051920350</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="C28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E28" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F28" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G28" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H28" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I28" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="J28" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -4249,63 +4258,63 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>19330051920352</v>
+        <v>19330051920351</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F29" t="s">
-        <v>340</v>
+        <v>344</v>
+      </c>
+      <c r="G29" t="s">
+        <v>354</v>
       </c>
       <c r="H29" t="s">
-        <v>377</v>
+        <v>382</v>
+      </c>
+      <c r="I29" t="s">
+        <v>405</v>
       </c>
       <c r="J29" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>19330051920354</v>
+        <v>19330051920352</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E30" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F30" t="s">
-        <v>341</v>
-      </c>
-      <c r="G30" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H30" t="s">
-        <v>378</v>
-      </c>
-      <c r="I30" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="J30" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -4313,62 +4322,97 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>19330051920353</v>
+        <v>19330051920354</v>
       </c>
       <c r="B31" t="s">
-        <v>233</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E31" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F31" t="s">
-        <v>342</v>
+        <v>346</v>
+      </c>
+      <c r="G31" t="s">
+        <v>346</v>
       </c>
       <c r="H31" t="s">
-        <v>379</v>
+        <v>384</v>
+      </c>
+      <c r="I31" t="s">
+        <v>406</v>
+      </c>
+      <c r="J31" t="s">
+        <v>431</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
+        <v>19330051920353</v>
+      </c>
+      <c r="B32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" t="s">
+        <v>347</v>
+      </c>
+      <c r="H32" t="s">
+        <v>385</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
         <v>19330051920355</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>56</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>56</v>
       </c>
-      <c r="D32" t="s">
-        <v>281</v>
-      </c>
-      <c r="E32" t="s">
-        <v>312</v>
-      </c>
-      <c r="F32" t="s">
-        <v>343</v>
-      </c>
-      <c r="G32" t="s">
-        <v>343</v>
-      </c>
-      <c r="H32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I32" t="s">
-        <v>312</v>
-      </c>
-      <c r="J32" t="s">
-        <v>426</v>
-      </c>
-      <c r="K32">
+      <c r="D33" t="s">
+        <v>284</v>
+      </c>
+      <c r="E33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F33" t="s">
+        <v>348</v>
+      </c>
+      <c r="G33" t="s">
+        <v>348</v>
+      </c>
+      <c r="H33" t="s">
+        <v>386</v>
+      </c>
+      <c r="I33" t="s">
+        <v>316</v>
+      </c>
+      <c r="J33" t="s">
+        <v>432</v>
+      </c>
+      <c r="K33">
         <v>0</v>
       </c>
     </row>
@@ -4434,28 +4478,28 @@
         <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="E2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="H2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="J2" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4466,28 +4510,28 @@
         <v>19330051920247</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="E3" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F3" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="H3" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="I3" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="J3" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4498,31 +4542,31 @@
         <v>19330051920248</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E4" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F4" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G4" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="H4" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="I4" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="J4" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4533,31 +4577,31 @@
         <v>19330051920249</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C5" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D5" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="E5" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F5" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="G5" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="I5" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="J5" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4568,31 +4612,31 @@
         <v>19330051920250</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C6" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D6" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E6" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F6" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G6" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H6" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="I6" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="J6" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -4606,28 +4650,28 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="I7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="J7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4641,25 +4685,25 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D8" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="E8" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F8" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G8" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H8" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="I8" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -4676,22 +4720,22 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E9" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F9" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="H9" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="I9" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="J9" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4708,25 +4752,25 @@
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="E10" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F10" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="G10" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="H10" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="I10" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="J10" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -4740,28 +4784,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D11" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E11" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F11" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G11" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H11" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="I11" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="J11" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -4778,25 +4822,25 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E12" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F12" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="G12" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="H12" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="I12" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="J12" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -4813,25 +4857,25 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E13" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F13" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G13" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="H13" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="I13" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="J13" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -4845,28 +4889,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D14" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="E14" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F14" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="G14" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H14" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="I14" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="J14" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -4877,28 +4921,28 @@
         <v>19330051920259</v>
       </c>
       <c r="B15" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C15" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D15" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E15" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F15" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="G15" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="H15" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="I15" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -4915,25 +4959,25 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E16" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F16" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="G16" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="H16" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="I16" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="J16" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -4944,31 +4988,31 @@
         <v>19330051920260</v>
       </c>
       <c r="B17" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C17" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D17" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E17" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F17" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="G17" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="H17" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="I17" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="J17" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4982,28 +5026,28 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D18" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E18" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F18" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="G18" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="H18" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="I18" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="J18" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -5014,31 +5058,31 @@
         <v>19330051920261</v>
       </c>
       <c r="B19" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C19" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D19" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="E19" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F19" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G19" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="H19" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="I19" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="J19" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -5049,22 +5093,22 @@
         <v>19330051920265</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E20" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F20" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H20" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -5075,31 +5119,31 @@
         <v>19330051920267</v>
       </c>
       <c r="B21" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C21" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D21" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="E21" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F21" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="G21" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="H21" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="I21" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="J21" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -5110,22 +5154,22 @@
         <v>19330051920266</v>
       </c>
       <c r="B22" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C22" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D22" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E22" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="F22" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H22" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -5136,31 +5180,31 @@
         <v>19330051920402</v>
       </c>
       <c r="B23" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C23" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D23" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="E23" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F23" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G23" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H23" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="I23" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="J23" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -5171,28 +5215,28 @@
         <v>19330051920400</v>
       </c>
       <c r="B24" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C24" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D24" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E24" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="F24" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H24" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="I24" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="J24" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -5206,28 +5250,28 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D25" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="E25" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="F25" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="G25" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="H25" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="I25" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="J25" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -5241,28 +5285,28 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D26" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E26" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="F26" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="G26" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H26" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="I26" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="J26" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -5273,31 +5317,31 @@
         <v>19330051920405</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D27" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="E27" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="F27" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="G27" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="H27" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="I27" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="J27" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -5308,31 +5352,31 @@
         <v>19330051920406</v>
       </c>
       <c r="B28" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C28" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D28" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="E28" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="F28" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="G28" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="H28" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="I28" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="J28" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -5343,28 +5387,28 @@
         <v>19330051920407</v>
       </c>
       <c r="B29" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="E29" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="F29" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H29" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="I29" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="J29" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -5375,28 +5419,28 @@
         <v>19330051920409</v>
       </c>
       <c r="B30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="E30" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G30" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H30" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="I30" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="J30" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -5407,31 +5451,31 @@
         <v>19330051920411</v>
       </c>
       <c r="B31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C31" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D31" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="E31" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F31" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="G31" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H31" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="I31" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="J31" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -5442,25 +5486,25 @@
         <v>19330051920412</v>
       </c>
       <c r="B32" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D32" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="E32" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F32" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="H32" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="I32" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -5471,22 +5515,22 @@
         <v>19330051920414</v>
       </c>
       <c r="B33" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C33" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D33" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E33" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="F33" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="H33" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="K33">
         <v>2</v>

--- a/Hernández Mendoza Delfina 20212.xlsx
+++ b/Hernández Mendoza Delfina 20212.xlsx
@@ -3530,6 +3530,9 @@
       <c r="H6" t="s">
         <v>359</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
